--- a/khusat_DB/job_db (4).xlsx
+++ b/khusat_DB/job_db (4).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이준호\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baegyeongho/khusat_server/khusat_DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA55507-EE0E-4006-8B19-29DBAE09D4B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150598A4-82C1-014D-8043-F07E0CFB93E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="2280" windowWidth="28800" windowHeight="15435" xr2:uid="{B7B04BEA-90CC-49A3-88DC-395A2B4E391F}"/>
+    <workbookView xWindow="0" yWindow="2280" windowWidth="28800" windowHeight="15440" xr2:uid="{B7B04BEA-90CC-49A3-88DC-395A2B4E391F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>의무보급, 의무벼병</t>
+    <t>의무보급, 의무병</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +444,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -922,17 +922,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C15FB2E-0D7F-429F-8245-B5B728FFC622}">
   <dimension ref="B2:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="34.375" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6">
       <c r="B2" s="6" t="s">
         <v>26</v>
       </c>
@@ -945,7 +945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>30</v>
@@ -960,7 +960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6">
       <c r="C4" t="s">
         <v>27</v>
       </c>
@@ -974,7 +974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6">
       <c r="C5" t="s">
         <v>28</v>
       </c>
@@ -988,7 +988,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6">
       <c r="C6" t="s">
         <v>29</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6">
       <c r="C7" t="s">
         <v>31</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6">
       <c r="C8" t="s">
         <v>35</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6">
       <c r="D9">
         <v>1</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6">
       <c r="D10">
         <v>1</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6">
       <c r="D11">
         <v>1</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6">
       <c r="D12">
         <v>1</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6">
       <c r="D13">
         <v>1</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6">
       <c r="E14" t="s">
         <v>19</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" ht="18" thickBot="1">
       <c r="E15" t="s">
         <v>21</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" ht="20" thickTop="1" thickBot="1">
       <c r="E16" t="s">
         <v>32</v>
       </c>
@@ -1109,10 +1109,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="19" thickTop="1" thickBot="1">
       <c r="F17" s="8"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6">
       <c r="E20" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6">
       <c r="B21" s="3"/>
       <c r="E21" t="s">
         <v>1</v>
@@ -1129,7 +1129,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6">
       <c r="B22" s="2"/>
       <c r="E22" t="s">
         <v>2</v>
@@ -1138,7 +1138,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6">
       <c r="B23" s="4"/>
       <c r="E23" t="s">
         <v>3</v>
@@ -1147,7 +1147,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6">
       <c r="E24" t="s">
         <v>4</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6">
       <c r="B25" s="5"/>
       <c r="E25" t="s">
         <v>5</v>
@@ -1164,7 +1164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6">
       <c r="E26" t="s">
         <v>6</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6">
       <c r="E27" t="s">
         <v>7</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6">
       <c r="E28" t="s">
         <v>36</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6">
       <c r="E29" t="s">
         <v>9</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6">
       <c r="E30" t="s">
         <v>19</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6">
       <c r="E31" t="s">
         <v>38</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6">
       <c r="E32" t="s">
         <v>37</v>
       </c>

--- a/khusat_DB/job_db (4).xlsx
+++ b/khusat_DB/job_db (4).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baegyeongho/khusat_server/khusat_DB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daydream/Desktop/khusat_server/khusat_DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150598A4-82C1-014D-8043-F07E0CFB93E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA747EF2-82E1-EF4C-8658-43CE63885D2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2280" windowWidth="28800" windowHeight="15440" xr2:uid="{B7B04BEA-90CC-49A3-88DC-395A2B4E391F}"/>
+    <workbookView xWindow="17920" yWindow="500" windowWidth="17920" windowHeight="21900" xr2:uid="{B7B04BEA-90CC-49A3-88DC-395A2B4E391F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>보병</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -437,6 +437,50 @@
   </si>
   <si>
     <t>의무보급, 의무병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투</t>
+  </si>
+  <si>
+    <t>보병, 기갑, 포병, 방공, 화생방</t>
+  </si>
+  <si>
+    <t>건설</t>
+  </si>
+  <si>
+    <t>포병, 방공, 공병</t>
+  </si>
+  <si>
+    <t>수송</t>
+  </si>
+  <si>
+    <t>기갑, 보급, 수송</t>
+  </si>
+  <si>
+    <t>지휘</t>
+  </si>
+  <si>
+    <t>정보통신, 인사, 헌병</t>
+  </si>
+  <si>
+    <t>보조</t>
+  </si>
+  <si>
+    <t>정보, 정보통신, 화생방, 보급, 의무</t>
+  </si>
+  <si>
+    <t>동적</t>
+  </si>
+  <si>
+    <t>정적</t>
+  </si>
+  <si>
+    <t>보병, 기갑, 수송, 포병, 헌병, 의무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기갑, 방공, 정보, 공병, 정보통신, 화생방, 보급, 인사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +488,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,6 +578,13 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -577,7 +628,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -604,6 +655,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -923,7 +977,7 @@
   <dimension ref="B2:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1113,6 +1167,12 @@
       <c r="F17" s="8"/>
     </row>
     <row r="20" spans="2:6">
+      <c r="B20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="E20" t="s">
         <v>0</v>
       </c>
@@ -1121,7 +1181,12 @@
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="3"/>
+      <c r="B21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="E21" t="s">
         <v>1</v>
       </c>
@@ -1130,7 +1195,12 @@
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="2"/>
+      <c r="B22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="E22" t="s">
         <v>2</v>
       </c>
@@ -1139,7 +1209,12 @@
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="4"/>
+      <c r="B23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="E23" t="s">
         <v>3</v>
       </c>
@@ -1148,6 +1223,12 @@
       </c>
     </row>
     <row r="24" spans="2:6">
+      <c r="B24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="E24" t="s">
         <v>4</v>
       </c>
@@ -1156,7 +1237,8 @@
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="5"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
       <c r="E25" t="s">
         <v>5</v>
       </c>
@@ -1165,6 +1247,12 @@
       </c>
     </row>
     <row r="26" spans="2:6">
+      <c r="B26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="E26" t="s">
         <v>6</v>
       </c>
@@ -1173,6 +1261,12 @@
       </c>
     </row>
     <row r="27" spans="2:6">
+      <c r="B27" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="E27" t="s">
         <v>7</v>
       </c>
